--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2727,28 +2727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1079.517360496554</v>
+        <v>1152.690964178623</v>
       </c>
       <c r="AB2" t="n">
-        <v>1477.04327757613</v>
+        <v>1577.162630325497</v>
       </c>
       <c r="AC2" t="n">
-        <v>1336.076340207524</v>
+        <v>1426.640442448885</v>
       </c>
       <c r="AD2" t="n">
-        <v>1079517.360496554</v>
+        <v>1152690.964178623</v>
       </c>
       <c r="AE2" t="n">
-        <v>1477043.27757613</v>
+        <v>1577162.630325497</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.279114660367293e-06</v>
+        <v>2.366697012354293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.8798828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1336076.340207524</v>
+        <v>1426640.442448885</v>
       </c>
     </row>
     <row r="3">
@@ -2833,28 +2833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>521.6010227783403</v>
+        <v>570.383425233053</v>
       </c>
       <c r="AB3" t="n">
-        <v>713.6775307783871</v>
+        <v>780.4237659446318</v>
       </c>
       <c r="AC3" t="n">
-        <v>645.5651488936026</v>
+        <v>705.9412170545103</v>
       </c>
       <c r="AD3" t="n">
-        <v>521601.0227783403</v>
+        <v>570383.425233053</v>
       </c>
       <c r="AE3" t="n">
-        <v>713677.5307783871</v>
+        <v>780423.7659446318</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.007089624373408e-06</v>
+        <v>3.713641290115346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.571614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>645565.1488936025</v>
+        <v>705941.2170545103</v>
       </c>
     </row>
     <row r="4">
@@ -2939,28 +2939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.1085112412165</v>
+        <v>467.8055728413577</v>
       </c>
       <c r="AB4" t="n">
-        <v>573.4427548428074</v>
+        <v>640.0722228868544</v>
       </c>
       <c r="AC4" t="n">
-        <v>518.7141831525705</v>
+        <v>578.9846282815392</v>
       </c>
       <c r="AD4" t="n">
-        <v>419108.5112412166</v>
+        <v>467805.5728413577</v>
       </c>
       <c r="AE4" t="n">
-        <v>573442.7548428074</v>
+        <v>640072.2228868544</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.285040306410884e-06</v>
+        <v>4.227922823383865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.650390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>518714.1831525705</v>
+        <v>578984.6282815392</v>
       </c>
     </row>
     <row r="5">
@@ -3045,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.4579876489658</v>
+        <v>414.9595381439798</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.8229150893592</v>
+        <v>567.7659468113934</v>
       </c>
       <c r="AC5" t="n">
-        <v>468.4026228422559</v>
+        <v>513.5791617122244</v>
       </c>
       <c r="AD5" t="n">
-        <v>378457.9876489658</v>
+        <v>414959.5381439798</v>
       </c>
       <c r="AE5" t="n">
-        <v>517822.9150893592</v>
+        <v>567765.9468113934</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.429851024529838e-06</v>
+        <v>4.49586056543945e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.253255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>468402.6228422559</v>
+        <v>513579.1617122244</v>
       </c>
     </row>
     <row r="6">
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>349.7999446035131</v>
+        <v>386.301495098527</v>
       </c>
       <c r="AB6" t="n">
-        <v>478.6117162909417</v>
+        <v>528.5547480129758</v>
       </c>
       <c r="AC6" t="n">
-        <v>432.9336858238962</v>
+        <v>478.1102246938646</v>
       </c>
       <c r="AD6" t="n">
-        <v>349799.9446035131</v>
+        <v>386301.4950985271</v>
       </c>
       <c r="AE6" t="n">
-        <v>478611.7162909417</v>
+        <v>528554.7480129758</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.526764967410222e-06</v>
+        <v>4.675176733236805e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.013997395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>432933.6858238961</v>
+        <v>478110.2246938646</v>
       </c>
     </row>
     <row r="7">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>318.2428773435901</v>
+        <v>354.8296791846246</v>
       </c>
       <c r="AB7" t="n">
-        <v>435.4339446663642</v>
+        <v>485.4936210410476</v>
       </c>
       <c r="AC7" t="n">
-        <v>393.8767401227852</v>
+        <v>439.1587912434659</v>
       </c>
       <c r="AD7" t="n">
-        <v>318242.8773435901</v>
+        <v>354829.6791846246</v>
       </c>
       <c r="AE7" t="n">
-        <v>435433.9446663642</v>
+        <v>485493.6210410476</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.582131025337068e-06</v>
+        <v>4.77761843603433e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>393876.7401227852</v>
+        <v>439158.791243466</v>
       </c>
     </row>
     <row r="8">
@@ -3363,28 +3363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>313.6287719584403</v>
+        <v>350.2155737994747</v>
       </c>
       <c r="AB8" t="n">
-        <v>429.120722118439</v>
+        <v>479.1803984931225</v>
       </c>
       <c r="AC8" t="n">
-        <v>388.1660426741706</v>
+        <v>433.4480937948513</v>
       </c>
       <c r="AD8" t="n">
-        <v>313628.7719584403</v>
+        <v>350215.5737994747</v>
       </c>
       <c r="AE8" t="n">
-        <v>429120.722118439</v>
+        <v>479180.3984931225</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.597816518982448e-06</v>
+        <v>4.80664070596685e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.849609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>388166.0426741706</v>
+        <v>433448.0937948513</v>
       </c>
     </row>
   </sheetData>
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>762.0672053112636</v>
+        <v>820.8005146288291</v>
       </c>
       <c r="AB2" t="n">
-        <v>1042.693970339187</v>
+        <v>1123.055475278214</v>
       </c>
       <c r="AC2" t="n">
-        <v>943.1807212401928</v>
+        <v>1015.87263693592</v>
       </c>
       <c r="AD2" t="n">
-        <v>762067.2053112636</v>
+        <v>820800.5146288291</v>
       </c>
       <c r="AE2" t="n">
-        <v>1042693.970339187</v>
+        <v>1123055.475278214</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.56961673764768e-06</v>
+        <v>2.991931744672523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.01627604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>943180.7212401929</v>
+        <v>1015872.63693592</v>
       </c>
     </row>
     <row r="3">
@@ -3766,28 +3766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.40014951012</v>
+        <v>459.3696571864173</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.2640783702889</v>
+        <v>628.5298309214326</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.4115066802356</v>
+        <v>568.5438260054485</v>
       </c>
       <c r="AD3" t="n">
-        <v>412400.14951012</v>
+        <v>459369.6571864173</v>
       </c>
       <c r="AE3" t="n">
-        <v>564264.0783702888</v>
+        <v>628529.8309214326</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.246683584666955e-06</v>
+        <v>4.282525648441792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.9970703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>510411.5066802356</v>
+        <v>568543.8260054485</v>
       </c>
     </row>
     <row r="4">
@@ -3872,28 +3872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.2976684412405</v>
+        <v>382.5035534933716</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.1879916530871</v>
+        <v>523.3582367554438</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.8367166602507</v>
+        <v>473.4096611774022</v>
       </c>
       <c r="AD4" t="n">
-        <v>347297.6684412405</v>
+        <v>382503.5534933716</v>
       </c>
       <c r="AE4" t="n">
-        <v>475187.9916530871</v>
+        <v>523358.2367554439</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.497710223098209e-06</v>
+        <v>4.761021162834992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.2939453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>429836.7166602507</v>
+        <v>473409.6611774022</v>
       </c>
     </row>
     <row r="5">
@@ -3978,28 +3978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.6961736274294</v>
+        <v>346.5803404491551</v>
       </c>
       <c r="AB5" t="n">
-        <v>410.0575264190923</v>
+        <v>474.2065118480384</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.9222116170063</v>
+        <v>428.9489079102803</v>
       </c>
       <c r="AD5" t="n">
-        <v>299696.1736274294</v>
+        <v>346580.3404491551</v>
       </c>
       <c r="AE5" t="n">
-        <v>410057.5264190923</v>
+        <v>474206.5118480384</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.631288461247662e-06</v>
+        <v>5.015641900197745e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.974934895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>370922.2116170063</v>
+        <v>428948.9079102803</v>
       </c>
     </row>
     <row r="6">
@@ -4084,28 +4084,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>289.2176030415071</v>
+        <v>324.5087394396588</v>
       </c>
       <c r="AB6" t="n">
-        <v>395.7202838615253</v>
+        <v>444.0071736165314</v>
       </c>
       <c r="AC6" t="n">
-        <v>357.9532953666873</v>
+        <v>401.6317521345509</v>
       </c>
       <c r="AD6" t="n">
-        <v>289217.6030415071</v>
+        <v>324508.7394396588</v>
       </c>
       <c r="AE6" t="n">
-        <v>395720.2838615254</v>
+        <v>444007.1736165314</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.667991086335725e-06</v>
+        <v>5.08560276801976e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>357953.2953666872</v>
+        <v>401631.7521345509</v>
       </c>
     </row>
   </sheetData>
@@ -4381,28 +4381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.8300134459807</v>
+        <v>332.5984425561726</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.9264549114528</v>
+        <v>455.075862313059</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.9489125479902</v>
+        <v>411.644060716884</v>
       </c>
       <c r="AD2" t="n">
-        <v>290830.0134459807</v>
+        <v>332598.4425561726</v>
       </c>
       <c r="AE2" t="n">
-        <v>397926.4549114528</v>
+        <v>455075.862313059</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.533376646255372e-06</v>
+        <v>5.395429264422009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.923828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>359948.9125479902</v>
+        <v>411644.060716884</v>
       </c>
     </row>
     <row r="3">
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.3124088774929</v>
+        <v>276.617485005048</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.6472602457002</v>
+        <v>378.4802464860663</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.613556811839</v>
+        <v>342.3586229617975</v>
       </c>
       <c r="AD3" t="n">
-        <v>245312.4088774929</v>
+        <v>276617.485005048</v>
       </c>
       <c r="AE3" t="n">
-        <v>335647.2602457003</v>
+        <v>378480.2464860663</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.797427219867457e-06</v>
+        <v>5.957787883405841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.271158854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>303613.556811839</v>
+        <v>342358.6229617975</v>
       </c>
     </row>
   </sheetData>
@@ -4784,28 +4784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.0183201771719</v>
+        <v>462.9055043619732</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.3193514500325</v>
+        <v>633.3677330175963</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.6025572064042</v>
+        <v>572.9200055155925</v>
       </c>
       <c r="AD2" t="n">
-        <v>419018.3201771718</v>
+        <v>462905.5043619732</v>
       </c>
       <c r="AE2" t="n">
-        <v>573319.3514500326</v>
+        <v>633367.7330175963</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.140266763463223e-06</v>
+        <v>4.345481487816143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.840169270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>518602.5572064042</v>
+        <v>572920.0055155925</v>
       </c>
     </row>
     <row r="3">
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.2307255706668</v>
+        <v>310.0608623632472</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.3193092822102</v>
+        <v>424.2389508052336</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.1176067823094</v>
+        <v>383.7501807634884</v>
       </c>
       <c r="AD3" t="n">
-        <v>277230.7255706668</v>
+        <v>310060.8623632472</v>
       </c>
       <c r="AE3" t="n">
-        <v>379319.3092822101</v>
+        <v>424238.9508052336</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.705801169359541e-06</v>
+        <v>5.493711854935882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.202799479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>343117.6067823094</v>
+        <v>383750.1807634884</v>
       </c>
     </row>
     <row r="4">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.1854555465856</v>
+        <v>297.015592339166</v>
       </c>
       <c r="AB4" t="n">
-        <v>361.4701953185668</v>
+        <v>406.3898368415902</v>
       </c>
       <c r="AC4" t="n">
-        <v>326.9719872039674</v>
+        <v>367.6045611851464</v>
       </c>
       <c r="AD4" t="n">
-        <v>264185.4555465856</v>
+        <v>297015.592339166</v>
       </c>
       <c r="AE4" t="n">
-        <v>361470.1953185668</v>
+        <v>406389.8368415902</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.775603683997975e-06</v>
+        <v>5.635435092591318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.046549479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>326971.9872039674</v>
+        <v>367604.5611851464</v>
       </c>
     </row>
   </sheetData>
@@ -5293,28 +5293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.9003419829808</v>
+        <v>263.1251477285358</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.6645227388923</v>
+        <v>360.0194353844315</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.2516279372536</v>
+        <v>325.6596857617916</v>
       </c>
       <c r="AD2" t="n">
-        <v>232900.3419829808</v>
+        <v>263125.1477285358</v>
       </c>
       <c r="AE2" t="n">
-        <v>318664.5227388924</v>
+        <v>360019.4353844315</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.763207142947833e-06</v>
+        <v>6.153122586559262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.593424479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>288251.6279372536</v>
+        <v>325659.6857617917</v>
       </c>
     </row>
     <row r="3">
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.8585001852459</v>
+        <v>263.0833059308008</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.6072729453015</v>
+        <v>359.9621855908407</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.1998419836125</v>
+        <v>325.6078998081506</v>
       </c>
       <c r="AD3" t="n">
-        <v>232858.5001852459</v>
+        <v>263083.3059308008</v>
       </c>
       <c r="AE3" t="n">
-        <v>318607.2729453015</v>
+        <v>359962.1855908407</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.775072165922493e-06</v>
+        <v>6.179543675199597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.565755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>288199.8419836126</v>
+        <v>325607.8998081506</v>
       </c>
     </row>
   </sheetData>
@@ -5696,28 +5696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>827.3805080213994</v>
+        <v>886.681408313338</v>
       </c>
       <c r="AB2" t="n">
-        <v>1132.05851252675</v>
+        <v>1213.196620477261</v>
       </c>
       <c r="AC2" t="n">
-        <v>1024.016436945298</v>
+        <v>1097.410837751062</v>
       </c>
       <c r="AD2" t="n">
-        <v>827380.5080213994</v>
+        <v>886681.4083133381</v>
       </c>
       <c r="AE2" t="n">
-        <v>1132058.51252675</v>
+        <v>1213196.620477261</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.49310869605412e-06</v>
+        <v>2.823115675803936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.4345703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1024016.436945298</v>
+        <v>1097410.837751062</v>
       </c>
     </row>
     <row r="3">
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>447.856592192689</v>
+        <v>483.4883726840156</v>
       </c>
       <c r="AB3" t="n">
-        <v>612.7771474764332</v>
+        <v>661.530121507878</v>
       </c>
       <c r="AC3" t="n">
-        <v>554.2945565594097</v>
+        <v>598.3946151745222</v>
       </c>
       <c r="AD3" t="n">
-        <v>447856.5921926891</v>
+        <v>483488.3726840156</v>
       </c>
       <c r="AE3" t="n">
-        <v>612777.1474764332</v>
+        <v>661530.1215078779</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.18304571003951e-06</v>
+        <v>4.127623515485632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.137044270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>554294.5565594097</v>
+        <v>598394.6151745222</v>
       </c>
     </row>
     <row r="4">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.9213672115113</v>
+        <v>400.4678068482662</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.301513813288</v>
+        <v>547.9377207225349</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.6488781090229</v>
+        <v>495.6433136921964</v>
       </c>
       <c r="AD4" t="n">
-        <v>364921.3672115112</v>
+        <v>400467.8068482662</v>
       </c>
       <c r="AE4" t="n">
-        <v>499301.513813288</v>
+        <v>547937.7207225349</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.442442117905826e-06</v>
+        <v>4.618080819250531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.378580729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>451648.8781090229</v>
+        <v>495643.3136921964</v>
       </c>
     </row>
     <row r="5">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>328.7382674140898</v>
+        <v>364.2847070508448</v>
       </c>
       <c r="AB5" t="n">
-        <v>449.7942003847531</v>
+        <v>498.430407294</v>
       </c>
       <c r="AC5" t="n">
-        <v>406.8664731901566</v>
+        <v>450.8609087733302</v>
       </c>
       <c r="AD5" t="n">
-        <v>328738.2674140898</v>
+        <v>364284.7070508448</v>
       </c>
       <c r="AE5" t="n">
-        <v>449794.2003847531</v>
+        <v>498430.407294</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.578840598056934e-06</v>
+        <v>4.875978109975616e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>406866.4731901566</v>
+        <v>450860.9087733302</v>
       </c>
     </row>
     <row r="6">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>295.106526361848</v>
+        <v>330.7382173446235</v>
       </c>
       <c r="AB6" t="n">
-        <v>403.7777685493768</v>
+        <v>452.5306201112732</v>
       </c>
       <c r="AC6" t="n">
-        <v>365.2417850246809</v>
+        <v>409.3417328585667</v>
       </c>
       <c r="AD6" t="n">
-        <v>295106.5263618479</v>
+        <v>330738.2173446235</v>
       </c>
       <c r="AE6" t="n">
-        <v>403777.7685493769</v>
+        <v>452530.6201112731</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.649863525967195e-06</v>
+        <v>5.010265681707557e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.87890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>365241.7850246809</v>
+        <v>409341.7328585667</v>
       </c>
     </row>
     <row r="7">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>295.0345416318801</v>
+        <v>330.6662326146558</v>
       </c>
       <c r="AB7" t="n">
-        <v>403.6792758660928</v>
+        <v>452.4321274279891</v>
       </c>
       <c r="AC7" t="n">
-        <v>365.1526923448541</v>
+        <v>409.25264017874</v>
       </c>
       <c r="AD7" t="n">
-        <v>295034.5416318802</v>
+        <v>330666.2326146557</v>
       </c>
       <c r="AE7" t="n">
-        <v>403679.2758660928</v>
+        <v>452432.1274279891</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.652543636454374e-06</v>
+        <v>5.01533313724461e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.872395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>365152.6923448541</v>
+        <v>409252.64017874</v>
       </c>
     </row>
   </sheetData>
@@ -6523,28 +6523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.6439669184356</v>
+        <v>264.7569820030619</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.7360302469123</v>
+        <v>362.2521830302853</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.2706968339783</v>
+        <v>327.6793431060062</v>
       </c>
       <c r="AD2" t="n">
-        <v>225643.9669184356</v>
+        <v>264756.9820030619</v>
       </c>
       <c r="AE2" t="n">
-        <v>308736.0302469123</v>
+        <v>362252.1830302853</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.725521517707077e-06</v>
+        <v>6.248440002956123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.8408203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>279270.6968339783</v>
+        <v>327679.3431060062</v>
       </c>
     </row>
     <row r="3">
@@ -6629,28 +6629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.6104268880844</v>
+        <v>266.7234419727106</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.4266275314754</v>
+        <v>364.9427803148498</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.7045072899805</v>
+        <v>330.1131535620088</v>
       </c>
       <c r="AD3" t="n">
-        <v>227610.4268880844</v>
+        <v>266723.4419727106</v>
       </c>
       <c r="AE3" t="n">
-        <v>311426.6275314754</v>
+        <v>364942.7803148498</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.725979723316745e-06</v>
+        <v>6.249490469900679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.839192708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>281704.5072899805</v>
+        <v>330113.1535620089</v>
       </c>
     </row>
   </sheetData>
@@ -6926,28 +6926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.2360879163967</v>
+        <v>624.1272003951102</v>
       </c>
       <c r="AB2" t="n">
-        <v>776.1174401772598</v>
+        <v>853.9583701293809</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.0458809744101</v>
+        <v>772.4577818223321</v>
       </c>
       <c r="AD2" t="n">
-        <v>567236.0879163968</v>
+        <v>624127.2003951102</v>
       </c>
       <c r="AE2" t="n">
-        <v>776117.4401772599</v>
+        <v>853958.370129381</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.831045832036549e-06</v>
+        <v>3.588824525858756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.846028645833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>702045.8809744101</v>
+        <v>772457.7818223321</v>
       </c>
     </row>
     <row r="3">
@@ -7032,28 +7032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.7735380342804</v>
+        <v>379.0447508888228</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.7343650735098</v>
+        <v>518.6257504402988</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.7126993542329</v>
+        <v>469.1288367140883</v>
       </c>
       <c r="AD3" t="n">
-        <v>344773.5380342804</v>
+        <v>379044.7508888228</v>
       </c>
       <c r="AE3" t="n">
-        <v>471734.3650735098</v>
+        <v>518625.7504402988</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.456387789021206e-06</v>
+        <v>4.814486119363996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.593424479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>426712.6993542329</v>
+        <v>469128.8367140883</v>
       </c>
     </row>
     <row r="4">
@@ -7138,28 +7138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.0773906491624</v>
+        <v>323.1780113031128</v>
       </c>
       <c r="AB4" t="n">
-        <v>395.5284390805852</v>
+        <v>442.1864126725271</v>
       </c>
       <c r="AC4" t="n">
-        <v>357.7797599823842</v>
+        <v>399.9847620595884</v>
       </c>
       <c r="AD4" t="n">
-        <v>289077.3906491624</v>
+        <v>323178.0113031128</v>
       </c>
       <c r="AE4" t="n">
-        <v>395528.4390805852</v>
+        <v>442186.4126725271</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.692433479977222e-06</v>
+        <v>5.277132411501874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>357779.7599823842</v>
+        <v>399984.7620595885</v>
       </c>
     </row>
     <row r="5">
@@ -7244,28 +7244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>270.7283453969869</v>
+        <v>316.1388263544716</v>
       </c>
       <c r="AB5" t="n">
-        <v>370.422465863814</v>
+        <v>432.5550892788738</v>
       </c>
       <c r="AC5" t="n">
-        <v>335.0698656129669</v>
+        <v>391.272638652978</v>
       </c>
       <c r="AD5" t="n">
-        <v>270728.3453969869</v>
+        <v>316138.8263544716</v>
       </c>
       <c r="AE5" t="n">
-        <v>370422.465863814</v>
+        <v>432555.0892788738</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.721292354503885e-06</v>
+        <v>5.333695406746388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.9521484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>335069.8656129669</v>
+        <v>391272.638652978</v>
       </c>
     </row>
   </sheetData>
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>685.0975231969652</v>
+        <v>743.3269095269881</v>
       </c>
       <c r="AB2" t="n">
-        <v>937.3806556076829</v>
+        <v>1017.052670883641</v>
       </c>
       <c r="AC2" t="n">
-        <v>847.918361458498</v>
+        <v>919.9865914168947</v>
       </c>
       <c r="AD2" t="n">
-        <v>685097.5231969652</v>
+        <v>743326.909526988</v>
       </c>
       <c r="AE2" t="n">
-        <v>937380.6556076829</v>
+        <v>1017052.670883641</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.656970523700872e-06</v>
+        <v>3.185862331439968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.576822916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>847918.3614584981</v>
+        <v>919986.5914168947</v>
       </c>
     </row>
     <row r="3">
@@ -7647,28 +7647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.3495949083401</v>
+        <v>435.8477631177868</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.725292645435</v>
+        <v>596.3461377440042</v>
       </c>
       <c r="AC3" t="n">
-        <v>481.8827383999982</v>
+        <v>539.4316993347767</v>
       </c>
       <c r="AD3" t="n">
-        <v>389349.5949083401</v>
+        <v>435847.7631177868</v>
       </c>
       <c r="AE3" t="n">
-        <v>532725.2926454351</v>
+        <v>596346.1377440041</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.31453255805645e-06</v>
+        <v>4.450158881000468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.857096354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>481882.7383999982</v>
+        <v>539431.6993347767</v>
       </c>
     </row>
     <row r="4">
@@ -7753,28 +7753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.3833383906041</v>
+        <v>362.2357188425974</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.9403267195702</v>
+        <v>495.626891232496</v>
       </c>
       <c r="AC4" t="n">
-        <v>405.1895306256507</v>
+        <v>448.3249563499765</v>
       </c>
       <c r="AD4" t="n">
-        <v>327383.3383906041</v>
+        <v>362235.7188425973</v>
       </c>
       <c r="AE4" t="n">
-        <v>447940.3267195702</v>
+        <v>495626.891232496</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.562288360146829e-06</v>
+        <v>4.926519725074197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.193033854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>405189.5306256507</v>
+        <v>448324.9563499765</v>
       </c>
     </row>
     <row r="5">
@@ -7859,28 +7859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.3229891150536</v>
+        <v>320.2606209130674</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.3915012691116</v>
+        <v>438.1947104346867</v>
       </c>
       <c r="AC5" t="n">
-        <v>353.1330843059001</v>
+        <v>396.3740222809382</v>
       </c>
       <c r="AD5" t="n">
-        <v>285322.9891150537</v>
+        <v>320260.6209130674</v>
       </c>
       <c r="AE5" t="n">
-        <v>390391.5012691116</v>
+        <v>438194.7104346867</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.675782163229554e-06</v>
+        <v>5.144734609962753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.930989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>353133.0843059001</v>
+        <v>396374.0222809382</v>
       </c>
     </row>
     <row r="6">
@@ -7965,28 +7965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>283.2455479229542</v>
+        <v>318.183179720968</v>
       </c>
       <c r="AB6" t="n">
-        <v>387.5490545798442</v>
+        <v>435.3522637454193</v>
       </c>
       <c r="AC6" t="n">
-        <v>350.5619167392575</v>
+        <v>393.8028547142954</v>
       </c>
       <c r="AD6" t="n">
-        <v>283245.5479229543</v>
+        <v>318183.179720968</v>
       </c>
       <c r="AE6" t="n">
-        <v>387549.0545798442</v>
+        <v>435352.2637454193</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.686995038963672e-06</v>
+        <v>5.166293640686279e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.906575520833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>350561.9167392575</v>
+        <v>393802.8547142954</v>
       </c>
     </row>
   </sheetData>
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>992.411164129094</v>
+        <v>1064.797704564719</v>
       </c>
       <c r="AB2" t="n">
-        <v>1357.860736852003</v>
+        <v>1456.903194944806</v>
       </c>
       <c r="AC2" t="n">
-        <v>1228.268413896361</v>
+        <v>1317.858398795749</v>
       </c>
       <c r="AD2" t="n">
-        <v>992411.164129094</v>
+        <v>1064797.704564719</v>
       </c>
       <c r="AE2" t="n">
-        <v>1357860.736852003</v>
+        <v>1456903.194944806</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.34703085312558e-06</v>
+        <v>2.509416311899411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.3720703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1228268.413896361</v>
+        <v>1317858.398795749</v>
       </c>
     </row>
     <row r="3">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.9820917047774</v>
+        <v>545.1829212616633</v>
       </c>
       <c r="AB3" t="n">
-        <v>679.9928231729531</v>
+        <v>745.9433246432058</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.0952625052471</v>
+        <v>674.751540677289</v>
       </c>
       <c r="AD3" t="n">
-        <v>496982.0917047774</v>
+        <v>545182.9212616633</v>
       </c>
       <c r="AE3" t="n">
-        <v>679992.8231729531</v>
+        <v>745943.3246432057</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.061532232076841e-06</v>
+        <v>3.840478188510906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.430013020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>615095.2625052471</v>
+        <v>674751.540677289</v>
       </c>
     </row>
     <row r="4">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.8830728853457</v>
+        <v>438.2469800580259</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.874150151598</v>
+        <v>599.6288522076204</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.3949330143455</v>
+        <v>542.4011161373041</v>
       </c>
       <c r="AD4" t="n">
-        <v>401883.0728853457</v>
+        <v>438246.9800580259</v>
       </c>
       <c r="AE4" t="n">
-        <v>549874.1501515979</v>
+        <v>599628.8522076204</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.33210539652427e-06</v>
+        <v>4.344535471869447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.5673828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>497394.9330143455</v>
+        <v>542401.1161373041</v>
       </c>
     </row>
     <row r="5">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>360.3011256212645</v>
+        <v>396.4944405933525</v>
       </c>
       <c r="AB5" t="n">
-        <v>492.979895438839</v>
+        <v>542.5011857200144</v>
       </c>
       <c r="AC5" t="n">
-        <v>445.9305861197843</v>
+        <v>490.7256339600917</v>
       </c>
       <c r="AD5" t="n">
-        <v>360301.1256212645</v>
+        <v>396494.4405933525</v>
       </c>
       <c r="AE5" t="n">
-        <v>492979.895438839</v>
+        <v>542501.1857200144</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.479297197983671e-06</v>
+        <v>4.618742634016493e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>445930.5861197843</v>
+        <v>490725.6339600917</v>
       </c>
     </row>
     <row r="6">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>322.1056387034367</v>
+        <v>370.3063787517717</v>
       </c>
       <c r="AB6" t="n">
-        <v>440.7191451719102</v>
+        <v>506.6695241726144</v>
       </c>
       <c r="AC6" t="n">
-        <v>398.6575285099074</v>
+        <v>458.3136959007227</v>
       </c>
       <c r="AD6" t="n">
-        <v>322105.6387034367</v>
+        <v>370306.3787517716</v>
       </c>
       <c r="AE6" t="n">
-        <v>440719.1451719102</v>
+        <v>506669.5241726144</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.569927444022931e-06</v>
+        <v>4.787579908407546e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.960286458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>398657.5285099074</v>
+        <v>458313.6959007228</v>
       </c>
     </row>
     <row r="7">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>307.7423906573673</v>
+        <v>344.0209569754759</v>
       </c>
       <c r="AB7" t="n">
-        <v>421.0667155334958</v>
+        <v>470.7046504673205</v>
       </c>
       <c r="AC7" t="n">
-        <v>380.8806991738251</v>
+        <v>425.7812592648449</v>
       </c>
       <c r="AD7" t="n">
-        <v>307742.3906573672</v>
+        <v>344020.9569754759</v>
       </c>
       <c r="AE7" t="n">
-        <v>421066.7155334958</v>
+        <v>470704.6504673205</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.610960452613915e-06</v>
+        <v>4.864021291205572e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.867513020833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>380880.6991738251</v>
+        <v>425781.2592648449</v>
       </c>
     </row>
     <row r="8">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>307.4529271773393</v>
+        <v>343.731493495448</v>
       </c>
       <c r="AB8" t="n">
-        <v>420.6706588298942</v>
+        <v>470.308593763719</v>
       </c>
       <c r="AC8" t="n">
-        <v>380.5224415661462</v>
+        <v>425.4230016571659</v>
       </c>
       <c r="AD8" t="n">
-        <v>307452.9271773393</v>
+        <v>343731.493495448</v>
       </c>
       <c r="AE8" t="n">
-        <v>420670.6588298942</v>
+        <v>470308.593763719</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.617454208560653e-06</v>
+        <v>4.876118666006177e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.852864583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>380522.4415661462</v>
+        <v>425423.0016571659</v>
       </c>
     </row>
   </sheetData>
@@ -9195,28 +9195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>473.164689351001</v>
+        <v>517.5613719614165</v>
       </c>
       <c r="AB2" t="n">
-        <v>647.4048025228826</v>
+        <v>708.1503023138558</v>
       </c>
       <c r="AC2" t="n">
-        <v>585.6173968084451</v>
+        <v>640.5654313562122</v>
       </c>
       <c r="AD2" t="n">
-        <v>473164.6893510009</v>
+        <v>517561.3719614166</v>
       </c>
       <c r="AE2" t="n">
-        <v>647404.8025228826</v>
+        <v>708150.3023138558</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.030297424379092e-06</v>
+        <v>4.069725816958841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.162434895833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>585617.3968084451</v>
+        <v>640565.4313562122</v>
       </c>
     </row>
     <row r="3">
@@ -9301,28 +9301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.881452674332</v>
+        <v>333.1576517956386</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.3110333849991</v>
+        <v>455.8409970650667</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.1515242338862</v>
+        <v>412.3361720820336</v>
       </c>
       <c r="AD3" t="n">
-        <v>299881.452674332</v>
+        <v>333157.6517956386</v>
       </c>
       <c r="AE3" t="n">
-        <v>410311.0333849991</v>
+        <v>455840.9970650667</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.618382170540951e-06</v>
+        <v>5.248540135135175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>371151.5242338862</v>
+        <v>412336.1720820335</v>
       </c>
     </row>
     <row r="4">
@@ -9407,28 +9407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.3716897426568</v>
+        <v>303.6478888639634</v>
       </c>
       <c r="AB4" t="n">
-        <v>369.9344738630226</v>
+        <v>415.4644375430902</v>
       </c>
       <c r="AC4" t="n">
-        <v>334.6284468838299</v>
+        <v>375.8130947319772</v>
       </c>
       <c r="AD4" t="n">
-        <v>270371.6897426568</v>
+        <v>303647.8888639634</v>
       </c>
       <c r="AE4" t="n">
-        <v>369934.4738630226</v>
+        <v>415464.4375430902</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757563584668939e-06</v>
+        <v>5.527528911614927e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.009114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>334628.4468838299</v>
+        <v>375813.0947319772</v>
       </c>
     </row>
     <row r="5">
@@ -9513,28 +9513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>271.6517015172313</v>
+        <v>304.9279006385379</v>
       </c>
       <c r="AB5" t="n">
-        <v>371.6858424431295</v>
+        <v>417.2158061231971</v>
       </c>
       <c r="AC5" t="n">
-        <v>336.2126673047126</v>
+        <v>377.39731515286</v>
       </c>
       <c r="AD5" t="n">
-        <v>271651.7015172314</v>
+        <v>304927.9006385379</v>
       </c>
       <c r="AE5" t="n">
-        <v>371685.8424431295</v>
+        <v>417215.8061231971</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.757359954216667e-06</v>
+        <v>5.527120734911957e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.0107421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>336212.6673047126</v>
+        <v>377397.31515286</v>
       </c>
     </row>
   </sheetData>
@@ -9810,28 +9810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.1918612410229</v>
+        <v>372.1276977701901</v>
       </c>
       <c r="AB2" t="n">
-        <v>465.4655127556605</v>
+        <v>509.1615332045388</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.0421375032097</v>
+        <v>460.5678710881969</v>
       </c>
       <c r="AD2" t="n">
-        <v>340191.8612410229</v>
+        <v>372127.6977701901</v>
       </c>
       <c r="AE2" t="n">
-        <v>465465.5127556605</v>
+        <v>509161.5332045389</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.386510706958646e-06</v>
+        <v>4.992729646365847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.233072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>421042.1375032097</v>
+        <v>460567.8710881969</v>
       </c>
     </row>
     <row r="3">
@@ -9916,28 +9916,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.1736006681782</v>
+        <v>283.0240963427769</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.6668014312442</v>
+        <v>387.2460547580914</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.8677242421339</v>
+        <v>350.2878347952297</v>
       </c>
       <c r="AD3" t="n">
-        <v>251173.6006681782</v>
+        <v>283024.0963427769</v>
       </c>
       <c r="AE3" t="n">
-        <v>343666.8014312442</v>
+        <v>387246.0547580913</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793666275530962e-06</v>
+        <v>5.844524558480259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>310867.7242421339</v>
+        <v>350287.8347952297</v>
       </c>
     </row>
     <row r="4">
@@ -10022,28 +10022,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.8369779603524</v>
+        <v>284.6874736349511</v>
       </c>
       <c r="AB4" t="n">
-        <v>345.9427076254228</v>
+        <v>389.5219609522711</v>
       </c>
       <c r="AC4" t="n">
-        <v>312.9264211433953</v>
+        <v>352.3465316964914</v>
       </c>
       <c r="AD4" t="n">
-        <v>252836.9779603524</v>
+        <v>284687.473634951</v>
       </c>
       <c r="AE4" t="n">
-        <v>345942.7076254228</v>
+        <v>389521.9609522711</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.793029929239887e-06</v>
+        <v>5.84319328224356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.180013020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>312926.4211433952</v>
+        <v>352346.5316964914</v>
       </c>
     </row>
   </sheetData>
@@ -17652,28 +17652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.0341906207713</v>
+        <v>296.0103905777789</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.9490309215878</v>
+        <v>405.0144754452884</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.6458251635764</v>
+        <v>366.3604623501758</v>
       </c>
       <c r="AD2" t="n">
-        <v>255034.1906207713</v>
+        <v>296010.3905777789</v>
       </c>
       <c r="AE2" t="n">
-        <v>348949.0309215878</v>
+        <v>405014.4754452885</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.684867741178448e-06</v>
+        <v>5.836515230463226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.650390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>315645.8251635765</v>
+        <v>366360.4623501758</v>
       </c>
     </row>
     <row r="3">
@@ -17758,28 +17758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.5873886124193</v>
+        <v>270.2982928750836</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.8140349489618</v>
+        <v>369.8340490307676</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.527923543418</v>
+        <v>334.5376064566183</v>
       </c>
       <c r="AD3" t="n">
-        <v>239587.3886124193</v>
+        <v>270298.2928750836</v>
       </c>
       <c r="AE3" t="n">
-        <v>327814.0349489618</v>
+        <v>369834.0490307676</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793372734477953e-06</v>
+        <v>6.072389436205631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.393229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>296527.923543418</v>
+        <v>334537.6064566183</v>
       </c>
     </row>
   </sheetData>
@@ -18055,28 +18055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.9217311649367</v>
+        <v>267.8006483285096</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.5890560106113</v>
+        <v>366.4166615738445</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.5651180335651</v>
+        <v>331.4463696622504</v>
       </c>
       <c r="AD2" t="n">
-        <v>229921.7311649367</v>
+        <v>267800.6483285096</v>
       </c>
       <c r="AE2" t="n">
-        <v>314589.0560106114</v>
+        <v>366416.6615738445</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.618972368550899e-06</v>
+        <v>6.229296395320183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>284565.1180335651</v>
+        <v>331446.3696622504</v>
       </c>
     </row>
   </sheetData>
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>632.0022173086253</v>
+        <v>678.0953320217907</v>
       </c>
       <c r="AB2" t="n">
-        <v>864.7333156916787</v>
+        <v>927.7999487269366</v>
       </c>
       <c r="AC2" t="n">
-        <v>782.2043817028955</v>
+        <v>839.2520237958436</v>
       </c>
       <c r="AD2" t="n">
-        <v>632002.2173086253</v>
+        <v>678095.3320217907</v>
       </c>
       <c r="AE2" t="n">
-        <v>864733.3156916788</v>
+        <v>927799.9487269366</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.738407955098307e-06</v>
+        <v>3.373516571658096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.220377604166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>782204.3817028955</v>
+        <v>839252.0237958436</v>
       </c>
     </row>
     <row r="3">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.03637235468</v>
+        <v>413.0440567047227</v>
       </c>
       <c r="AB3" t="n">
-        <v>502.1953571576129</v>
+        <v>565.1451006011247</v>
       </c>
       <c r="AC3" t="n">
-        <v>454.2665371061001</v>
+        <v>511.2084453858828</v>
       </c>
       <c r="AD3" t="n">
-        <v>367036.37235468</v>
+        <v>413044.0567047226</v>
       </c>
       <c r="AE3" t="n">
-        <v>502195.3571576129</v>
+        <v>565145.1006011247</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.383922266867944e-06</v>
+        <v>4.626187569631177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.7236328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>454266.5371061001</v>
+        <v>511208.4453858829</v>
       </c>
     </row>
     <row r="4">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.8976395789139</v>
+        <v>343.382157136354</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.6473780739413</v>
+        <v>469.830616345574</v>
       </c>
       <c r="AC4" t="n">
-        <v>382.3105054998842</v>
+        <v>424.9906417329632</v>
       </c>
       <c r="AD4" t="n">
-        <v>308897.6395789139</v>
+        <v>343382.157136354</v>
       </c>
       <c r="AE4" t="n">
-        <v>422647.3780739413</v>
+        <v>469830.616345574</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.62341743181436e-06</v>
+        <v>5.090946664531335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.110026041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>382310.5054998843</v>
+        <v>424990.6417329632</v>
       </c>
     </row>
     <row r="5">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.884584187839</v>
+        <v>311.4543530912998</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.8457033715453</v>
+        <v>426.1455862958273</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.6892011550484</v>
+        <v>385.4748496388395</v>
       </c>
       <c r="AD5" t="n">
-        <v>276884.5841878391</v>
+        <v>311454.3530912998</v>
       </c>
       <c r="AE5" t="n">
-        <v>378845.7033715453</v>
+        <v>426145.5862958273</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.706334754546631e-06</v>
+        <v>5.251854213012393e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.9228515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>342689.2011550484</v>
+        <v>385474.8496388395</v>
       </c>
     </row>
     <row r="6">
@@ -18776,28 +18776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>278.6399062092705</v>
+        <v>313.2096751127312</v>
       </c>
       <c r="AB6" t="n">
-        <v>381.2474124006098</v>
+        <v>428.5472953248919</v>
       </c>
       <c r="AC6" t="n">
-        <v>344.8616944451988</v>
+        <v>387.64734292899</v>
       </c>
       <c r="AD6" t="n">
-        <v>278639.9062092705</v>
+        <v>313209.6751127312</v>
       </c>
       <c r="AE6" t="n">
-        <v>381247.4124006098</v>
+        <v>428547.2953248919</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.703872838788547e-06</v>
+        <v>5.247076672974357e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.927734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>344861.6944451988</v>
+        <v>387647.34292899</v>
       </c>
     </row>
   </sheetData>
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>897.9401594731169</v>
+        <v>969.7758028432918</v>
       </c>
       <c r="AB2" t="n">
-        <v>1228.601340515116</v>
+        <v>1326.890036939107</v>
       </c>
       <c r="AC2" t="n">
-        <v>1111.345352929164</v>
+        <v>1200.253514115501</v>
       </c>
       <c r="AD2" t="n">
-        <v>897940.1594731169</v>
+        <v>969775.8028432918</v>
       </c>
       <c r="AE2" t="n">
-        <v>1228601.340515116</v>
+        <v>1326890.036939107</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.420676258846571e-06</v>
+        <v>2.665745892371553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.87076822916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1111345.352929164</v>
+        <v>1200253.514115501</v>
       </c>
     </row>
     <row r="3">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.8540769250479</v>
+        <v>519.6308075409536</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.6115647815543</v>
+        <v>710.981795370833</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.9953031603241</v>
+        <v>643.1266906898569</v>
       </c>
       <c r="AD3" t="n">
-        <v>471854.0769250479</v>
+        <v>519630.8075409536</v>
       </c>
       <c r="AE3" t="n">
-        <v>645611.5647815543</v>
+        <v>710981.795370833</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.121951895268731e-06</v>
+        <v>3.981614047112436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>583995.3031603241</v>
+        <v>643126.6906898569</v>
       </c>
     </row>
     <row r="4">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.1770568623755</v>
+        <v>419.0522976287283</v>
       </c>
       <c r="AB4" t="n">
-        <v>524.2797537777866</v>
+        <v>573.3658408982315</v>
       </c>
       <c r="AC4" t="n">
-        <v>474.2432299084898</v>
+        <v>518.6446097669154</v>
       </c>
       <c r="AD4" t="n">
-        <v>383177.0568623755</v>
+        <v>419052.2976287283</v>
       </c>
       <c r="AE4" t="n">
-        <v>524279.7537777866</v>
+        <v>573365.8408982315</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.386045277699431e-06</v>
+        <v>4.477156817700242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.472981770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>474243.2299084897</v>
+        <v>518644.6097669154</v>
       </c>
     </row>
     <row r="5">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.7613458586589</v>
+        <v>381.6365866250117</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.0859273178302</v>
+        <v>522.1720144382751</v>
       </c>
       <c r="AC5" t="n">
-        <v>427.9352703948848</v>
+        <v>472.3366502533104</v>
       </c>
       <c r="AD5" t="n">
-        <v>345761.3458586589</v>
+        <v>381636.5866250116</v>
       </c>
       <c r="AE5" t="n">
-        <v>473085.9273178302</v>
+        <v>522172.0144382751</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.525636138481163e-06</v>
+        <v>4.739084024144605e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.114908854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>427935.2703948848</v>
+        <v>472336.6502533105</v>
       </c>
     </row>
     <row r="6">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>305.4938198918845</v>
+        <v>341.454312004258</v>
       </c>
       <c r="AB6" t="n">
-        <v>417.9901218122214</v>
+        <v>467.1928535853156</v>
       </c>
       <c r="AC6" t="n">
-        <v>378.0977312392828</v>
+        <v>422.6046233484207</v>
       </c>
       <c r="AD6" t="n">
-        <v>305493.8198918845</v>
+        <v>341454.312004258</v>
       </c>
       <c r="AE6" t="n">
-        <v>417990.1218122214</v>
+        <v>467192.8535853156</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.61777939192716e-06</v>
+        <v>4.911980908887959e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.900065104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>378097.7312392828</v>
+        <v>422604.6233484207</v>
       </c>
     </row>
     <row r="7">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>302.5048066282004</v>
+        <v>338.4652987405738</v>
       </c>
       <c r="AB7" t="n">
-        <v>413.9004219988902</v>
+        <v>463.1031537719844</v>
       </c>
       <c r="AC7" t="n">
-        <v>374.398346636206</v>
+        <v>418.905238745344</v>
       </c>
       <c r="AD7" t="n">
-        <v>302504.8066282004</v>
+        <v>338465.2987405738</v>
       </c>
       <c r="AE7" t="n">
-        <v>413900.4219988902</v>
+        <v>463103.1537719844</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.629261712902408e-06</v>
+        <v>4.933526246739604e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.8740234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>374398.346636206</v>
+        <v>418905.238745344</v>
       </c>
     </row>
   </sheetData>
@@ -19900,28 +19900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.907881111824</v>
+        <v>272.46340161874</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.7795704582356</v>
+        <v>372.7964463316947</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.9739412777698</v>
+        <v>337.2172767168956</v>
       </c>
       <c r="AD2" t="n">
-        <v>235907.881111824</v>
+        <v>272463.4016187399</v>
       </c>
       <c r="AE2" t="n">
-        <v>322779.5704582356</v>
+        <v>372796.4463316947</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.375899416836504e-06</v>
+        <v>5.941944135614068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.352864583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>291973.9412777698</v>
+        <v>337217.2767168956</v>
       </c>
     </row>
   </sheetData>
@@ -20197,28 +20197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.352209329647</v>
+        <v>421.6079972270187</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.6781845262572</v>
+        <v>576.8626618381212</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.2717051609657</v>
+        <v>521.807699024121</v>
       </c>
       <c r="AD2" t="n">
-        <v>378352.209329647</v>
+        <v>421607.9972270187</v>
       </c>
       <c r="AE2" t="n">
-        <v>517678.1845262571</v>
+        <v>576862.6618381212</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259650418758497e-06</v>
+        <v>4.65326072848142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.527669270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>468271.7051609657</v>
+        <v>521807.699024121</v>
       </c>
     </row>
     <row r="3">
@@ -20303,28 +20303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.1039549224692</v>
+        <v>291.4605444994774</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.517461984665</v>
+        <v>398.7891753159138</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.6828129812307</v>
+        <v>360.7292961278851</v>
       </c>
       <c r="AD3" t="n">
-        <v>259103.9549224692</v>
+        <v>291460.5444994774</v>
       </c>
       <c r="AE3" t="n">
-        <v>354517.461984665</v>
+        <v>398789.1753159139</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774684749438941e-06</v>
+        <v>5.713862406015135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.131184895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>320682.8129812307</v>
+        <v>360729.2961278851</v>
       </c>
     </row>
     <row r="4">
@@ -20409,28 +20409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.1649552388648</v>
+        <v>290.521544815873</v>
       </c>
       <c r="AB4" t="n">
-        <v>353.2326811918151</v>
+        <v>397.5043945230639</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.5206498640492</v>
+        <v>359.5671330107036</v>
       </c>
       <c r="AD4" t="n">
-        <v>258164.9552388648</v>
+        <v>290521.544815873</v>
       </c>
       <c r="AE4" t="n">
-        <v>353232.6811918151</v>
+        <v>397504.3945230639</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.786494586972807e-06</v>
+        <v>5.738182209091699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.105143229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>319520.6498640492</v>
+        <v>359567.1330107036</v>
       </c>
     </row>
   </sheetData>
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>519.378656705826</v>
+        <v>564.5092268754918</v>
       </c>
       <c r="AB2" t="n">
-        <v>710.6367914741014</v>
+        <v>772.3864286004748</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.8146134808135</v>
+        <v>698.6709519060057</v>
       </c>
       <c r="AD2" t="n">
-        <v>519378.6567058259</v>
+        <v>564509.2268754918</v>
       </c>
       <c r="AE2" t="n">
-        <v>710636.7914741014</v>
+        <v>772386.4286004748</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.925914594593196e-06</v>
+        <v>3.815591395458705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.504231770833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>642814.6134808135</v>
+        <v>698670.9519060057</v>
       </c>
     </row>
     <row r="3">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.2285547789427</v>
+        <v>355.9272254192427</v>
       </c>
       <c r="AB3" t="n">
-        <v>440.887324369092</v>
+        <v>486.9953322195746</v>
       </c>
       <c r="AC3" t="n">
-        <v>398.8096569205512</v>
+        <v>440.5171812147792</v>
       </c>
       <c r="AD3" t="n">
-        <v>322228.5547789427</v>
+        <v>355927.2254192427</v>
       </c>
       <c r="AE3" t="n">
-        <v>440887.324369092</v>
+        <v>486995.3322195746</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.53679377451876e-06</v>
+        <v>5.025855520946156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.456705729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>398809.6569205512</v>
+        <v>440517.1812147791</v>
       </c>
     </row>
     <row r="4">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.6042749952363</v>
+        <v>311.4788226011873</v>
       </c>
       <c r="AB4" t="n">
-        <v>364.7797307989935</v>
+        <v>426.179066558774</v>
       </c>
       <c r="AC4" t="n">
-        <v>329.9656652631044</v>
+        <v>385.5051345924804</v>
       </c>
       <c r="AD4" t="n">
-        <v>266604.2749952363</v>
+        <v>311478.8226011873</v>
       </c>
       <c r="AE4" t="n">
-        <v>364779.7307989935</v>
+        <v>426179.066558774</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.737334411249389e-06</v>
+        <v>5.42316344420369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.983072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>329965.6652631044</v>
+        <v>385505.1345924804</v>
       </c>
     </row>
     <row r="5">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>266.7693728551104</v>
+        <v>311.6439204610613</v>
       </c>
       <c r="AB5" t="n">
-        <v>365.0056249744767</v>
+        <v>426.4049607342571</v>
       </c>
       <c r="AC5" t="n">
-        <v>330.170000415524</v>
+        <v>385.7094697448999</v>
       </c>
       <c r="AD5" t="n">
-        <v>266769.3728551104</v>
+        <v>311643.9204610613</v>
       </c>
       <c r="AE5" t="n">
-        <v>365005.6249744767</v>
+        <v>426404.9607342571</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.741359311133597e-06</v>
+        <v>5.431137511905798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.973307291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>330170.000415524</v>
+        <v>385709.4697449</v>
       </c>
     </row>
   </sheetData>
